--- a/Formatos Generales/IPS- [NombreProyecto_Versión] -  [Nombre de la HU].xlsx
+++ b/Formatos Generales/IPS- [NombreProyecto_Versión] -  [Nombre de la HU].xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28914"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE 2.0\formatos de reporte de incidencias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{7B450FCF-4470-4163-B0F6-4D93ABAC198B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DD55734-AF23-4190-963F-7D558B4BB81E}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{7B450FCF-4470-4163-B0F6-4D93ABAC198B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44BC960E-38AA-4C82-897C-EB97E4ED40E5}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejemplo" sheetId="33" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="CP01" sheetId="34" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DATOS!$B$25:$G$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DATOS!$B$26:$G$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ejemplo!$B$3:$G$4</definedName>
     <definedName name="Caracteristica_Evaluar">#REF!</definedName>
     <definedName name="Componentes">#REF!</definedName>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>CASOS DE PRUEBA</t>
   </si>
@@ -256,18 +256,71 @@
     </r>
   </si>
   <si>
+    <t>Descripción</t>
+  </si>
+  <si>
     <t>CONFORME</t>
   </si>
   <si>
+    <t>Indica que el caso de prueba se ejecutó con éxito y el resultado obtenido cumple con los criterios de aceptación establecidos</t>
+  </si>
+  <si>
     <t>NO CONFORME</t>
   </si>
   <si>
+    <t>Se refiere a un caso de prueba que se ejecutó, pero el resultado obtenido no cumple con los criterios de aceptación establecidos</t>
+  </si>
+  <si>
     <t>NO APLICA</t>
   </si>
   <si>
+    <t>Indica que el caso de prueba no es relevante o no se puede ejecutar en el contexto actual debido a cambios en los requisitos, el alcance, o las condiciones de prueba</t>
+  </si>
+  <si>
     <t>PENDIENTE</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Refleja que el caso de prueba aún no ha sido ejecutado y está en espera de ser procesado</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> (todos los casos deben iniciar con este estado)</t>
+    </r>
+  </si>
+  <si>
+    <t>BLOQUEADO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Indica que el caso de prueba no puede ejecutarse debido a un impedimento, como la falta de implementación, un entorno no disponible, o datos faltantes. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>(colocar el motivo del bloqueo)</t>
+    </r>
+  </si>
+  <si>
     <t>INFORME DE PRUEBAS DE SISTEMAS</t>
   </si>
   <si>
@@ -311,6 +364,9 @@
   </si>
   <si>
     <t>Casos de Pruebas Pendientes</t>
+  </si>
+  <si>
+    <t>Casos de prueba bloqueados</t>
   </si>
   <si>
     <t>Total Casos de Prueba</t>
@@ -329,7 +385,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,6 +532,17 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -607,12 +674,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -703,9 +771,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -718,11 +786,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{63292254-37A4-4868-A93A-063824387F00}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1033,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD41BC88-8804-4EAC-86DA-1699D63A4B27}">
-  <dimension ref="B3:H974"/>
+  <dimension ref="B3:H975"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B8" sqref="B8:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1106,28 +1184,50 @@
       <c r="B9" s="22" t="s">
         <v>5</v>
       </c>
+      <c r="C9" s="36" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="2:8" ht="15.75" customHeight="1">
       <c r="B10" s="33" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="15.75" customHeight="1">
       <c r="B11" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="15.75" customHeight="1">
       <c r="B12" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15.75" customHeight="1">
       <c r="B13" s="33" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="14" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B14" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="15" spans="2:8" ht="15.75" customHeight="1"/>
     <row r="16" spans="2:8" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
@@ -2088,6 +2188,7 @@
     <row r="972" ht="15.75" customHeight="1"/>
     <row r="973" ht="15.75" customHeight="1"/>
     <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
   </sheetData>
   <autoFilter ref="B3:G4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -2097,10 +2198,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:H1002"/>
+  <dimension ref="A3:H1003"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2116,30 +2217,30 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="15" customHeight="1">
-      <c r="E3" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
+      <c r="E3" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="2:7" ht="15" customHeight="1">
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="8" spans="2:7" ht="15" customHeight="1">
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="40"/>
+        <v>27</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="42"/>
       <c r="G8" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="25.9" customHeight="1">
@@ -2147,93 +2248,93 @@
         <v>45292</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="39"/>
+        <v>30</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="41"/>
       <c r="G9" s="20" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="15" customHeight="1">
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="2:7" ht="15" customHeight="1">
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="2:7" ht="15" customHeight="1">
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="2:7" ht="15" customHeight="1">
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
       <c r="G13" s="9"/>
     </row>
     <row r="16" spans="2:7" ht="15" customHeight="1">
       <c r="B16" s="29" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1">
-      <c r="B17" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="36"/>
+      <c r="B17" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="45"/>
       <c r="D17" s="30" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1">
-      <c r="B18" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="35"/>
+      <c r="B18" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="44"/>
       <c r="D18" s="31">
         <f>COUNTIF($G:$G,"CONFORME")</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1">
-      <c r="B19" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="35"/>
+      <c r="B19" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="44"/>
       <c r="D19" s="31">
         <f>COUNTIF($G:$G,"NO CONFORME")</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1">
-      <c r="B20" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="35"/>
+      <c r="B20" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="44"/>
       <c r="D20" s="31">
         <f>COUNTIF($G:$G,"NO APLICA")</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1">
-      <c r="B21" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="35"/>
+      <c r="B21" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="44"/>
       <c r="D21" s="31">
         <f>COUNTIF($G:$G,"PENDIENTE")</f>
         <v>0</v>
@@ -2241,121 +2342,130 @@
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1">
       <c r="B22" s="34" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C22" s="35"/>
       <c r="D22" s="31">
-        <f>SUM(D18:F21)</f>
+        <f>COUNTIF($G:$G,"BLOQUEADO")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1">
+      <c r="B23" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="44"/>
+      <c r="D23" s="31">
+        <f>SUM(D18:F22)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="37.9" customHeight="1">
-      <c r="B25" s="10" t="s">
+    <row r="26" spans="1:8" ht="37.9" customHeight="1">
+      <c r="B26" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D26" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E26" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F26" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G26" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H26" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="66.75" customHeight="1">
-      <c r="B26" s="8"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" spans="1:8" ht="94.5" customHeight="1">
-      <c r="A27" s="1"/>
+    <row r="27" spans="1:8" ht="66.75" customHeight="1">
       <c r="B27" s="8"/>
       <c r="C27" s="2"/>
       <c r="D27" s="11"/>
       <c r="E27" s="12"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="16"/>
+      <c r="G27" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="1:8" ht="66.75" customHeight="1">
+    <row r="28" spans="1:8" ht="94.5" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="8"/>
       <c r="C28" s="2"/>
       <c r="D28" s="11"/>
       <c r="E28" s="12"/>
-      <c r="F28" s="17"/>
+      <c r="F28" s="13"/>
       <c r="G28" s="14"/>
-      <c r="H28" s="18"/>
+      <c r="H28" s="16"/>
     </row>
-    <row r="29" spans="1:8" ht="55.5" customHeight="1">
+    <row r="29" spans="1:8" ht="66.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="8"/>
       <c r="C29" s="2"/>
       <c r="D29" s="11"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="13"/>
+      <c r="F29" s="17"/>
       <c r="G29" s="14"/>
       <c r="H29" s="18"/>
     </row>
-    <row r="30" spans="1:8" ht="62.25" customHeight="1">
+    <row r="30" spans="1:8" ht="55.5" customHeight="1">
+      <c r="A30" s="1"/>
       <c r="B30" s="8"/>
       <c r="C30" s="2"/>
       <c r="D30" s="11"/>
       <c r="E30" s="12"/>
       <c r="F30" s="13"/>
       <c r="G30" s="14"/>
-      <c r="H30" s="15"/>
+      <c r="H30" s="18"/>
     </row>
-    <row r="31" spans="1:8" ht="61.9" customHeight="1">
+    <row r="31" spans="1:8" ht="62.25" customHeight="1">
       <c r="B31" s="8"/>
       <c r="C31" s="2"/>
       <c r="D31" s="11"/>
       <c r="E31" s="12"/>
-      <c r="F31" s="17"/>
+      <c r="F31" s="13"/>
       <c r="G31" s="14"/>
-      <c r="H31" s="18"/>
+      <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8" ht="61.9" customHeight="1">
       <c r="B32" s="8"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="19"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="13"/>
+      <c r="F32" s="17"/>
       <c r="G32" s="14"/>
-      <c r="H32" s="16"/>
+      <c r="H32" s="18"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="33" spans="2:8" ht="61.9" customHeight="1">
+      <c r="B33" s="8"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="16"/>
+    </row>
+    <row r="34" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="35" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="36" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="37" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="38" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="39" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="40" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="41" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="42" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="43" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="44" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="45" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="46" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="47" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="48" spans="2:8" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -3310,9 +3420,16 @@
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="B25:G29" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B26:G30" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="13">
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E3:G4"/>
@@ -3320,12 +3437,6 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -3336,9 +3447,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F9A33C00-0F61-48C7-A32A-2BC20121992A}">
           <x14:formula1>
-            <xm:f>Ejemplo!$B$10:$B$13</xm:f>
+            <xm:f>Ejemplo!$B$10:$B$14</xm:f>
           </x14:formula1>
-          <xm:sqref>G26:G32</xm:sqref>
+          <xm:sqref>G27:G33</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3358,17 +3469,17 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="28" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="33" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="33" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3377,6 +3488,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
+    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CBC7F57751F3F343A56393DD202D817F" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="39c6f7f9cec71677675bb2863d384c02">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xmlns:ns3="328335c8-173a-4c26-85d0-3846c13a1e29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0daab8a5ec0935cc933c650856a513a" ns2:_="" ns3:_="">
     <xsd:import namespace="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
@@ -3637,29 +3769,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
-    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81999892-D045-4787-9EDB-20EA2EC41316}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{965534D7-8520-4EE0-9159-31E6ABCE19FF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3667,5 +3778,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{965534D7-8520-4EE0-9159-31E6ABCE19FF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81999892-D045-4787-9EDB-20EA2EC41316}"/>
 </file>